--- a/bank statement generator/bank_statements/statement_103.xlsx
+++ b/bank statement generator/bank_statements/statement_103.xlsx
@@ -682,7 +682,7 @@
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>Engin</t>
+          <t>Hartmut</t>
         </is>
       </c>
       <c r="D2" s="8" t="n"/>
@@ -699,12 +699,12 @@
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="8" t="inlineStr">
         <is>
-          <t>2267041356247526</t>
+          <t>2570314725427075</t>
         </is>
       </c>
       <c r="C3" s="8" t="inlineStr">
         <is>
-          <t>Peukert</t>
+          <t>Mohaupt</t>
         </is>
       </c>
       <c r="D3" s="8" t="n"/>
@@ -751,7 +751,7 @@
       <c r="C5" s="8" t="n"/>
       <c r="D5" s="8" t="inlineStr">
         <is>
-          <t>KONTOSTAND AM 18.03.2024</t>
+          <t>KONTOSTAND AM 03.07.2024</t>
         </is>
       </c>
       <c r="E5" s="17" t="n"/>
@@ -759,112 +759,96 @@
     <row r="6" ht="15.75" customHeight="1">
       <c r="B6" s="8" t="inlineStr">
         <is>
-          <t>21.03.</t>
+          <t>07.07.</t>
         </is>
       </c>
       <c r="C6" s="8" t="inlineStr">
         <is>
-          <t>22.03.</t>
+          <t>08.07.</t>
         </is>
       </c>
       <c r="D6" s="8" t="inlineStr">
         <is>
-          <t>ABSCHLAG STROM Stadtwerke Rosenheim 51398189</t>
+          <t>KARTENZAHLUNG ARAL TANKSTELLE</t>
         </is>
       </c>
       <c r="E6" s="17" t="inlineStr">
         <is>
-          <t>84,26-</t>
+          <t>69,23-</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="8" t="inlineStr">
         <is>
-          <t>22.03.</t>
+          <t>11.07.</t>
         </is>
       </c>
       <c r="C7" s="8" t="inlineStr">
         <is>
-          <t>23.03.</t>
+          <t>12.07.</t>
         </is>
       </c>
       <c r="D7" s="8" t="inlineStr">
         <is>
-          <t>RECHNUNG VODAFONE GMBH 25038358</t>
+          <t>KARTENZAHLUNG JET TANKSTELLE</t>
         </is>
       </c>
       <c r="E7" s="17" t="inlineStr">
         <is>
-          <t>39,85-</t>
+          <t>68,00-</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="8" t="inlineStr">
         <is>
-          <t>25.03.</t>
+          <t>15.07.</t>
         </is>
       </c>
       <c r="C8" s="8" t="inlineStr">
         <is>
-          <t>26.03.</t>
+          <t>16.07.</t>
         </is>
       </c>
       <c r="D8" s="8" t="inlineStr">
         <is>
-          <t>MITGLIEDSBEITRAG ZEUS BODYPOWER</t>
+          <t>BEITRAG Allianz SE K-68381771</t>
         </is>
       </c>
       <c r="E8" s="17" t="inlineStr">
         <is>
-          <t>26,32-</t>
+          <t>54,65-</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>27.03.</t>
+          <t>16.07.</t>
         </is>
       </c>
       <c r="C9" s="8" t="inlineStr">
         <is>
-          <t>28.03.</t>
+          <t>17.07.</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
         <is>
-          <t>KARTENZ./27.03 REWE RO</t>
+          <t>MCDONALDS Mellrichstadt</t>
         </is>
       </c>
       <c r="E9" s="17" t="inlineStr">
         <is>
-          <t>25,75-</t>
+          <t>14,53-</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="8" t="inlineStr">
-        <is>
-          <t>29.03.</t>
-        </is>
-      </c>
-      <c r="C10" s="8" t="inlineStr">
-        <is>
-          <t>30.03.</t>
-        </is>
-      </c>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>KARTENZ./29.03 EDEKA RO</t>
-        </is>
-      </c>
-      <c r="E10" s="17" t="inlineStr">
-        <is>
-          <t>36,32-</t>
-        </is>
-      </c>
+      <c r="B10" s="8" t="n"/>
+      <c r="C10" s="8" t="n"/>
+      <c r="D10" s="8" t="n"/>
+      <c r="E10" s="12" t="n"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="B11" s="8" t="n"/>
@@ -877,12 +861,12 @@
       <c r="C12" s="8" t="n"/>
       <c r="D12" s="9" t="inlineStr">
         <is>
-          <t>KONTOSTAND AM 31.03.2024</t>
+          <t>KONTOSTAND AM 21.07.2024</t>
         </is>
       </c>
       <c r="E12" s="17" t="inlineStr">
         <is>
-          <t>212,50-</t>
+          <t>206,41-</t>
         </is>
       </c>
     </row>
@@ -890,7 +874,7 @@
       <c r="B13" s="11" t="n"/>
       <c r="C13" s="11" t="inlineStr">
         <is>
-          <t>IHR NAECHSTER ABRECHNUNGSTERMIN 06.04.2024</t>
+          <t>IHR NAECHSTER ABRECHNUNGSTERMIN 30.07.2024</t>
         </is>
       </c>
       <c r="D13" s="11" t="n"/>
